--- a/Stern Icon.xlsx
+++ b/Stern Icon.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leocibu/Desktop/Bildung/FOM.nosync/5.Semester/Web Technologie/mineXplorer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69D9C5-FB0B-C54A-B167-FBA108FAE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A88CD-15D0-C84A-A006-2EBB4F22E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{26D9E0C2-1B5E-534B-B385-48819E7D2A20}"/>
+    <workbookView xWindow="4380" yWindow="0" windowWidth="24420" windowHeight="16300" activeTab="1" xr2:uid="{26D9E0C2-1B5E-534B-B385-48819E7D2A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Star" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   </sheetPr>
   <dimension ref="A1:AT54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="67" workbookViewId="0">
       <selection activeCell="AO49" sqref="AO49"/>
     </sheetView>
   </sheetViews>
@@ -2054,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFF51B7-8A30-9242-BCEC-87BC90087F9D}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView zoomScale="31" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18"/>
+    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2066,7 +2066,7 @@
     <col min="31" max="31" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2100,8 +2100,16 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="6"/>
-    </row>
-    <row r="2" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2134,8 +2142,17 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2168,8 +2185,17 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+    </row>
+    <row r="4" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2202,8 +2228,17 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="3"/>
+    </row>
+    <row r="5" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2236,8 +2271,17 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2270,8 +2314,17 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="3"/>
+    </row>
+    <row r="7" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2304,8 +2357,17 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="3"/>
+    </row>
+    <row r="8" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2338,8 +2400,17 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="3"/>
+    </row>
+    <row r="9" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
@@ -2372,8 +2443,17 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+    </row>
+    <row r="10" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
@@ -2406,8 +2486,17 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -2440,8 +2529,17 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+    </row>
+    <row r="12" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -2474,8 +2572,9 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -2509,7 +2608,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -2543,7 +2642,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -2577,7 +2676,7 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
